--- a/På spåret 2018-2019.xlsx
+++ b/På spåret 2018-2019.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaskuoppa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D863B50-DF92-644A-A90B-768E8FECD522}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3734595D-3F2E-47BE-A958-E3687FEAF580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42440" yWindow="6060" windowWidth="19180" windowHeight="15540" xr2:uid="{69E5494E-B5AE-1841-8D6A-2EE441F87A2A}"/>
+    <workbookView xWindow="42435" yWindow="6060" windowWidth="19185" windowHeight="15540" activeTab="1" xr2:uid="{69E5494E-B5AE-1841-8D6A-2EE441F87A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistik" sheetId="1" r:id="rId1"/>
     <sheet name="Versus" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -87,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -153,29 +158,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,35 +498,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F541A6A4-C4B6-4D4A-B592-8AE050661B15}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.375" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.1640625" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" customWidth="1"/>
+    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.125" customWidth="1"/>
     <col min="17" max="17" width="4.5" customWidth="1"/>
     <col min="18" max="18" width="4" customWidth="1"/>
-    <col min="19" max="19" width="4.1640625" customWidth="1"/>
-    <col min="20" max="20" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.1640625" customWidth="1"/>
+    <col min="19" max="19" width="4.125" customWidth="1"/>
+    <col min="20" max="20" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.125" customWidth="1"/>
     <col min="23" max="23" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -549,25 +557,25 @@
       <c r="J1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-    </row>
-    <row r="2" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+    </row>
+    <row r="2" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43434</v>
       </c>
@@ -622,7 +630,7 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43441</v>
       </c>
@@ -677,7 +685,7 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
     </row>
-    <row r="4" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43448</v>
       </c>
@@ -732,7 +740,7 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
     </row>
-    <row r="5" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43456</v>
       </c>
@@ -774,7 +782,7 @@
         <v>18.3</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" ref="N5:P5" si="6">O4/O2</f>
+        <f t="shared" ref="O5:P5" si="6">O4/O2</f>
         <v>15.23076923076923</v>
       </c>
       <c r="P5" s="3">
@@ -787,7 +795,7 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
     </row>
-    <row r="6" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43462</v>
       </c>
@@ -844,7 +852,7 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
     </row>
-    <row r="7" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43469</v>
       </c>
@@ -884,7 +892,7 @@
         <v>7.6426602966674126</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" ref="N7:P7" si="8">STDEV(C2:C14)</f>
+        <f t="shared" ref="N7:O7" si="8">STDEV(C2:C14)</f>
         <v>8.124722217473721</v>
       </c>
       <c r="O7" s="3">
@@ -895,13 +903,13 @@
         <f>STDEV(E2:E14)</f>
         <v>7.1925887782726283</v>
       </c>
-      <c r="S7" s="14"/>
+      <c r="S7" s="12"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
     </row>
-    <row r="8" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43476</v>
       </c>
@@ -958,7 +966,7 @@
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
     </row>
-    <row r="9" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43483</v>
       </c>
@@ -996,7 +1004,7 @@
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
     </row>
-    <row r="10" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43490</v>
       </c>
@@ -1029,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43497</v>
       </c>
@@ -1060,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43504</v>
       </c>
@@ -1093,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43511</v>
       </c>
@@ -1126,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43518</v>
       </c>
@@ -1157,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G15">
         <f>SUM(G2:G14)</f>
         <v>4</v>
@@ -1177,6 +1185,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1184,16 +1193,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA61C5B-A600-5D48-8660-C8CA15664FDC}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="5.83203125" customWidth="1"/>
-    <col min="7" max="12" width="4.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="5.875" customWidth="1"/>
+    <col min="7" max="12" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43434</v>
       </c>
@@ -1226,14 +1237,14 @@
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43441</v>
       </c>
@@ -1248,20 +1259,20 @@
         <v>4</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43448</v>
       </c>
@@ -1275,30 +1286,30 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="15">
+      <c r="H4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13">
         <f>SUMPRODUCT(--($B$2:$B$14&gt;B$2:B$14),--($B$2:$B$14&lt;&gt;""),--(B$2:B$14&lt;&gt;""))</f>
         <v>0</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <f t="shared" ref="J4:L4" si="0">SUMPRODUCT(--($B$2:$B$14&gt;C$2:C$14),--($B$2:$B$14&lt;&gt;""),--(C$2:C$14&lt;&gt;""))</f>
         <v>4</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <f>SUMPRODUCT(--($B$2:$B$14&gt;D$2:D$14),--($B$2:$B$14&lt;&gt;""),--(D$2:D$14&lt;&gt;""))</f>
         <v>7</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43456</v>
       </c>
@@ -1312,28 +1323,28 @@
         <v>24</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <f>SUMPRODUCT(--($C$2:$C$14&gt;B$2:B$14),--($C$2:$C$14&lt;&gt;""),--(B$2:B$14&lt;&gt;""))</f>
         <v>4</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="13">
         <f t="shared" ref="J5:L5" si="1">SUMPRODUCT(--($C$2:$C$14&gt;C$2:C$14),--($C$2:$C$14&lt;&gt;""),--(C$2:C$14&lt;&gt;""))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="13">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43462</v>
       </c>
@@ -1349,28 +1360,28 @@
       <c r="E6" s="2">
         <v>12</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <f>SUMPRODUCT(--($D$2:$D$14&gt;B$2:B$14),--($D$2:$D$14&lt;&gt;""),--(B$2:B$14&lt;&gt;""))</f>
         <v>6</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="13">
         <f t="shared" ref="J6:L6" si="2">SUMPRODUCT(--($D$2:$D$14&gt;C$2:C$14),--($D$2:$D$14&lt;&gt;""),--(C$2:C$14&lt;&gt;""))</f>
         <v>5</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="13">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43469</v>
       </c>
@@ -1386,28 +1397,28 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="13">
         <f>SUMPRODUCT(--($E$2:$E$14&gt;B$2:B$14),--($E$2:$E$14&lt;&gt;""),--(B$2:B$14&lt;&gt;""))</f>
         <v>1</v>
       </c>
-      <c r="J7" s="15">
-        <f t="shared" ref="J7:K7" si="3">SUMPRODUCT(--($E$2:$E$14&gt;C$2:C$14),--($E$2:$E$14&lt;&gt;""),--(C$2:C$14&lt;&gt;""))</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="15">
+      <c r="J7" s="13">
+        <f t="shared" ref="J7" si="3">SUMPRODUCT(--($E$2:$E$14&gt;C$2:C$14),--($E$2:$E$14&lt;&gt;""),--(C$2:C$14&lt;&gt;""))</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="13">
         <f>SUMPRODUCT(--($E$2:$E$14&gt;D$2:D$14),--($E$2:$E$14&lt;&gt;""),--(D$2:D$14&lt;&gt;""))</f>
         <v>4</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <f>SUMPRODUCT(--($E$2:$E$14&gt;E$2:E$14),--($E$2:$E$14&lt;&gt;""),--(E$2:E$14&lt;&gt;""))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43476</v>
       </c>
@@ -1429,7 +1440,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43483</v>
       </c>
@@ -1446,7 +1457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43490</v>
       </c>
@@ -1463,7 +1474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43497</v>
       </c>
@@ -1478,7 +1489,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43504</v>
       </c>
@@ -1495,7 +1506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43511</v>
       </c>
@@ -1512,7 +1523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43518</v>
       </c>
